--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -194,9 +194,9 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_SKU Setup Form 3" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 3" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Sheet1" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_SKU Setup Form 3" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 3" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal_Sheet1" xfId="22" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -209,7 +209,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -260,7 +260,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
